--- a/PrimaryConverter/Hardware/Primary_Converter/PrimaryConverter_BOM.xlsx
+++ b/PrimaryConverter/Hardware/Primary_Converter/PrimaryConverter_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\ECSE Summer project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\PrimaryConverter\Hardware\Primary_Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F199E629-30AC-4573-93C1-2E065C94EAB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9A7F7-8452-48A3-8198-525BBC594434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="9330" xr2:uid="{4895F57E-8DCF-4A6C-9607-D9B5352DA2F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{4895F57E-8DCF-4A6C-9607-D9B5352DA2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Component</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>https://www.digikey.co.nz/product-detail/en/samsung-electro-mechanics/CL21C101JCANNNC/1276-1261-1-ND/3889347</t>
+  </si>
+  <si>
+    <t>CL32B225KCJSNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 100V X7R 1210</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/samsung-electro-mechanics/CL32B225KCJSNNE/1276-3362-1-ND/3891448</t>
+  </si>
+  <si>
+    <t>CL21C200JBANNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 20PF 50V C0G/NP0 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/samsung-electro-mechanics/CL21C200JBANNNC/1276-1829-1-ND/3889915</t>
   </si>
 </sst>
 </file>
@@ -238,7 +256,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,11 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14A6EB3-AA55-40DD-86B5-47847CF9DC22}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
@@ -729,12 +747,12 @@
     <col min="7" max="7" width="107.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="34.5" customHeight="1">
       <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="36.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -757,7 +775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -777,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -797,7 +815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -817,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -837,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -857,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -877,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -891,7 +909,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -905,7 +923,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -925,7 +943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -945,7 +963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -965,7 +983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1026,7 +1044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="14">
         <v>0.78</v>
@@ -1049,7 +1067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -1129,7 +1147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -1149,27 +1167,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -1179,7 +1217,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -1189,7 +1227,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="1">
         <v>25</v>
       </c>

--- a/PrimaryConverter/Hardware/Primary_Converter/PrimaryConverter_BOM.xlsx
+++ b/PrimaryConverter/Hardware/Primary_Converter/PrimaryConverter_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\files.auckland.ac.nz\myhome\Documents\GitHub\2020-srw-rc-car\PrimaryConverter\Hardware\Primary_Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Sean\Documents\GitHub\2020-srw-rc-car\PrimaryConverter\Hardware\Primary_Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9A7F7-8452-48A3-8198-525BBC594434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F711D3E-8F7B-475A-AFFE-B9E34B8FDAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{4895F57E-8DCF-4A6C-9607-D9B5352DA2F2}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="38385" windowHeight="20700" xr2:uid="{4895F57E-8DCF-4A6C-9607-D9B5352DA2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Component</t>
   </si>
@@ -59,12 +62,6 @@
     <t>https://www.digikey.co.nz/product-detail/en/txc-corporation/9C-8-000MAAJ-T/887-1048-1-ND/2118925</t>
   </si>
   <si>
-    <t>Reset Resistor</t>
-  </si>
-  <si>
-    <t>ATmega328PB SMD</t>
-  </si>
-  <si>
     <t>Steering Controller</t>
   </si>
   <si>
@@ -104,15 +101,6 @@
     <t>MOSFET N-Ch 80V 74A TDSON-8</t>
   </si>
   <si>
-    <t>https://nz.element14.com/allegro-microsystems/acs70331eolctr-005b3/current-sensor-ic-1mhz-40-to-85deg/dp/3324653?st=acs70331</t>
-  </si>
-  <si>
-    <t>ACS70331</t>
-  </si>
-  <si>
-    <t>Current Sensor, 1 MHz, SOIC, 8 Pins, 3 V, 4.5 V</t>
-  </si>
-  <si>
     <t>https://www.digikey.co.nz/products/en?keywords=srh05s12</t>
   </si>
   <si>
@@ -140,15 +128,6 @@
     <t>IC REG LINEAR 3.3V 300MA SOT23-5</t>
   </si>
   <si>
-    <t>CP-014CHPJCT-ND</t>
-  </si>
-  <si>
-    <t>DC JACK</t>
-  </si>
-  <si>
-    <t>https://www.digikey.co.nz/product-detail/en/cui-devices/PJ-014CH-SMT-TR/CP-014CHPJCT-ND/669698</t>
-  </si>
-  <si>
     <t>MSS1P6-M3/89A</t>
   </si>
   <si>
@@ -246,6 +225,48 @@
   </si>
   <si>
     <t>https://www.digikey.co.nz/product-detail/en/samsung-electro-mechanics/CL21C200JBANNNC/1276-1829-1-ND/3889915</t>
+  </si>
+  <si>
+    <t>TMCS1100A2</t>
+  </si>
+  <si>
+    <t>PRECISION ISOLATED CURRENT SENSOR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/TMCS1100A2QDR/12696012?s=N4IgTCBcDaICoFkDCBlAjGgDJgghAugL5A</t>
+  </si>
+  <si>
+    <t>BLE112</t>
+  </si>
+  <si>
+    <t>BLE112-A-V1C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.co.nz/product-detail/en/silicon-labs/BLE112-A-V1C/336-4721-ND/7201185</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/C2012C0G1V183J060AC/6035663</t>
+  </si>
+  <si>
+    <t>C2012C0G1V183J060AC</t>
+  </si>
+  <si>
+    <t>CAP CER 0.018UF 35V NP0 0805</t>
+  </si>
+  <si>
+    <t>C2012C0G1H472J060AA</t>
+  </si>
+  <si>
+    <t>CAP CER 4700PF 50V C0G 0805</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/C2012C0G1H472J060AA/2732947</t>
+  </si>
+  <si>
+    <t>ATMEGA328PB-AU-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATMEGA328PB-AU/5638812?s=N4IgTCBcDaIIIBUCyBRA4nAzGAHABQCEBaOAVSIDkAREAXQF8g</t>
   </si>
 </sst>
 </file>
@@ -256,7 +277,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +333,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -394,7 +427,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -403,7 +436,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -415,6 +447,20 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -731,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14A6EB3-AA55-40DD-86B5-47847CF9DC22}">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,8 +794,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="34.5" customHeight="1">
-      <c r="B2" s="13" t="s">
-        <v>11</v>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="36.75" customHeight="1">
@@ -772,27 +818,27 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1.4490000000000001</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>12</v>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -800,10 +846,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -812,7 +858,7 @@
         <v>2.3115000000000001</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -820,10 +866,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -832,7 +878,7 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -840,10 +886,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -852,7 +898,7 @@
         <v>2.64</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -860,19 +906,19 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
-        <v>3.17</v>
+      <c r="F8" s="11">
+        <v>3.98</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -882,7 +928,7 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1">
@@ -900,47 +946,59 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="20">
+        <v>1.34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="13">
+        <v>12.79</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>12.79</v>
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>4.83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -948,19 +1006,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14">
-        <v>4.83</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -968,16 +1026,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0.66</v>
+        <v>2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.42</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>33</v>
@@ -988,18 +1046,21 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1.65</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.91</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1014,16 +1075,19 @@
         <v>40</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.42</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.78</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="H16" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -1033,215 +1097,205 @@
       <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="14">
-        <v>0.91</v>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.94</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="1">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0.78</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.56000000000000005</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="1">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="1">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="14">
-        <v>0.18</v>
+      <c r="F21" s="13">
+        <v>0.16</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="1">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0.16</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="1">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14">
-        <v>0.16</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0.74</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="D24" s="17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="21.75" customHeight="1">
       <c r="B25" s="1">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="14">
-        <v>0.16</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+    </row>
+    <row r="26" spans="2:7" ht="21.75" customHeight="1">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="1">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{86F88A75-5D9E-4AF2-8744-0ED17FA5893B}"/>
+    <hyperlink ref="G24" r:id="rId2" xr:uid="{3949DEF0-5C1B-4BA1-8511-8BB0F61D4629}"/>
+    <hyperlink ref="G25" r:id="rId3" xr:uid="{02E658E2-0FAE-416B-AFC2-39B485B44DBC}"/>
+    <hyperlink ref="G26" r:id="rId4" xr:uid="{4BBB822B-E847-47D7-8B6F-0CFB9453A981}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{3B4CDE18-8D91-4EDC-8D7D-FDA30674B569}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/PrimaryConverter/Hardware/Primary_Converter/PrimaryConverter_BOM.xlsx
+++ b/PrimaryConverter/Hardware/Primary_Converter/PrimaryConverter_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Sean\Documents\GitHub\2020-srw-rc-car\PrimaryConverter\Hardware\Primary_Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F711D3E-8F7B-475A-AFFE-B9E34B8FDAC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00CA3F0-9421-4657-B5F5-4CE2335E3CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="38385" windowHeight="20700" xr2:uid="{4895F57E-8DCF-4A6C-9607-D9B5352DA2F2}"/>
+    <workbookView xWindow="15" yWindow="900" windowWidth="38385" windowHeight="20700" xr2:uid="{4895F57E-8DCF-4A6C-9607-D9B5352DA2F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -777,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14A6EB3-AA55-40DD-86B5-47847CF9DC22}">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1287,6 +1287,31 @@
         <v>75</v>
       </c>
     </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="13">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{86F88A75-5D9E-4AF2-8744-0ED17FA5893B}"/>
